--- a/mieec-distrib-v2014/outras_cenas/recursos_todosplanos.xlsx
+++ b/mieec-distrib-v2014/outras_cenas/recursos_todosplanos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
   <si>
     <t>Resource</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>Plano E</t>
+  </si>
+  <si>
+    <t>Arquitetura A</t>
+  </si>
+  <si>
+    <t>Arquitetura B</t>
+  </si>
+  <si>
+    <t>Arquitetura C</t>
+  </si>
+  <si>
+    <t>ARQUITETURAS DE TOPO</t>
   </si>
 </sst>
 </file>
@@ -554,7 +566,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -605,6 +617,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -632,49 +687,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -959,14 +974,16 @@
   </sheetPr>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:O36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="4" width="23" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
@@ -981,17 +998,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1006,30 +1023,30 @@
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="52" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="53" t="s">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="51"/>
+      <c r="S2" s="35"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1044,9 +1061,9 @@
       <c r="D3" s="4">
         <v>0.11693017184734344</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="I3" s="24" t="s">
         <v>25</v>
       </c>
@@ -1094,9 +1111,9 @@
       <c r="D4" s="4">
         <v>0.19433464109897614</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="I4" s="24" t="s">
         <v>4</v>
       </c>
@@ -1151,9 +1168,9 @@
       <c r="D5" s="4">
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="I5" s="24" t="s">
         <v>5</v>
       </c>
@@ -1208,9 +1225,9 @@
       <c r="D6" s="4">
         <v>11.142857551574707</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
       <c r="I6" s="24" t="s">
         <v>6</v>
       </c>
@@ -1244,9 +1261,9 @@
       <c r="D7" s="4">
         <v>6.25</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
       <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
@@ -1301,9 +1318,9 @@
       <c r="D8" s="7">
         <v>2.8571429252624512</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
       <c r="I8" s="24" t="s">
         <v>8</v>
       </c>
@@ -1415,17 +1432,17 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1440,9 +1457,9 @@
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1457,9 +1474,9 @@
       <c r="D14" s="4">
         <v>0.09</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1478,9 +1495,9 @@
       <c r="D15" s="4">
         <v>0.16</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1499,19 +1516,19 @@
       <c r="D16" s="4">
         <v>6.29</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54" t="s">
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="54"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1526,9 +1543,9 @@
       <c r="D17" s="4">
         <v>15.63</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
         <v>10</v>
@@ -1559,9 +1576,9 @@
       <c r="D18" s="4">
         <v>14.29</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="1"/>
       <c r="I18" s="24" t="s">
         <v>4</v>
@@ -1575,7 +1592,7 @@
       <c r="L18">
         <v>710</v>
       </c>
-      <c r="M18" s="55">
+      <c r="M18" s="32">
         <v>0.116930171847343</v>
       </c>
     </row>
@@ -1592,9 +1609,9 @@
       <c r="D19" s="7">
         <v>2.86</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="1"/>
       <c r="I19" s="24" t="s">
         <v>5</v>
@@ -1608,7 +1625,7 @@
       <c r="L19">
         <v>590</v>
       </c>
-      <c r="M19" s="55">
+      <c r="M19" s="32">
         <v>0.19433464109897614</v>
       </c>
     </row>
@@ -1626,22 +1643,22 @@
       <c r="L20">
         <v>78</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="32">
         <v>11.142857551574707</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="32" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="1"/>
       <c r="I21" s="24" t="s">
         <v>8</v>
@@ -1655,7 +1672,7 @@
       <c r="L21">
         <v>2</v>
       </c>
-      <c r="M21" s="55">
+      <c r="M21" s="32">
         <v>6.25</v>
       </c>
     </row>
@@ -1672,9 +1689,9 @@
       <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
       <c r="I22" s="25" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1704,7 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22" s="55">
+      <c r="M22" s="32">
         <v>2.8571429252624512</v>
       </c>
     </row>
@@ -1704,9 +1721,9 @@
       <c r="D23" s="11">
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1722,9 +1739,9 @@
       <c r="D24" s="13">
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -1739,9 +1756,9 @@
       <c r="D25" s="11">
         <v>14.714285850524902</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
@@ -1756,36 +1773,46 @@
       <c r="D26" s="16">
         <v>3.125</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+    </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="32" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="51"/>
-      <c r="N28" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O28" s="51"/>
+      <c r="J28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="35"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1800,11 +1827,11 @@
       <c r="D29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
       <c r="I29" s="24" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>27</v>
@@ -1838,32 +1865,35 @@
       <c r="D30" s="19">
         <v>1.0540184564888477E-2</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
       <c r="I30" s="24" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="2">
+        <f>B37</f>
         <v>31</v>
       </c>
       <c r="K30" s="4">
+        <f>D37</f>
         <v>9.9999997764825821E-3</v>
       </c>
       <c r="L30" s="3">
+        <f>B30</f>
         <v>64</v>
       </c>
-      <c r="M30" s="4">
-        <f>D56</f>
-        <v>0</v>
+      <c r="M30" s="31">
+        <f>D30</f>
+        <v>1.0540184564888477E-2</v>
       </c>
       <c r="N30" s="30">
-        <f>B49</f>
-        <v>0</v>
+        <f>B23</f>
+        <v>59</v>
       </c>
       <c r="O30" s="31">
-        <f>D49</f>
-        <v>0</v>
+        <f>D23</f>
+        <v>9.9999997764825821E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -1879,32 +1909,35 @@
       <c r="D31" s="19">
         <v>2.2068509832024574E-2</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
       <c r="I31" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J31" s="2">
+        <f>B38</f>
         <v>59</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="31">
+        <f>D38</f>
         <v>1.9433464854955673E-2</v>
       </c>
       <c r="L31" s="3">
+        <f>B31</f>
         <v>67</v>
       </c>
-      <c r="M31" s="4">
-        <f>D57</f>
-        <v>0</v>
+      <c r="M31" s="31">
+        <f>D31</f>
+        <v>2.2068509832024574E-2</v>
       </c>
       <c r="N31" s="30">
-        <f>B50</f>
-        <v>0</v>
+        <f>B24</f>
+        <v>27</v>
       </c>
       <c r="O31" s="31">
-        <f>D50</f>
-        <v>0</v>
+        <f>D24</f>
+        <v>9.9999997764825821E-3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -1920,20 +1953,38 @@
       <c r="D32" s="19">
         <v>10</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
       <c r="I32" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J32" s="2">
+        <f>B39</f>
+        <v>38</v>
+      </c>
+      <c r="K32" s="31">
+        <f>D39</f>
+        <v>5.4285712242126465</v>
+      </c>
+      <c r="L32" s="3">
+        <f>B32</f>
+        <v>70</v>
+      </c>
+      <c r="M32" s="4">
+        <f>D32</f>
+        <v>10</v>
+      </c>
+      <c r="N32" s="30">
+        <f>B25</f>
+        <v>103</v>
+      </c>
+      <c r="O32" s="31">
+        <f>D25</f>
+        <v>14.714285850524902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1946,87 +1997,83 @@
       <c r="D33" s="19">
         <v>3.125</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
       <c r="I33" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J33" s="2">
-        <v>38</v>
+        <f>B40</f>
+        <v>2</v>
       </c>
       <c r="K33" s="4">
-        <v>5.4285712242126465</v>
+        <f>D40</f>
+        <v>6.25</v>
       </c>
       <c r="L33" s="3">
-        <v>70</v>
-      </c>
-      <c r="M33" s="4">
-        <f>D58</f>
+        <f>B33</f>
+        <v>1</v>
+      </c>
+      <c r="M33" s="31">
+        <f>D33</f>
+        <v>3.125</v>
+      </c>
+      <c r="N33" s="30">
+        <f>B26</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="31">
+        <f>D26</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="6">
         <v>0</v>
       </c>
-      <c r="N33" s="30">
-        <f>B51</f>
+      <c r="K34" s="7">
         <v>0</v>
       </c>
-      <c r="O33" s="31">
-        <f>D51</f>
+      <c r="L34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I34" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
-      <c r="K34" s="4">
-        <v>6.25</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-      <c r="M34" s="4">
-        <f>D59</f>
+      <c r="M34" s="7">
         <v>0</v>
       </c>
-      <c r="N34" s="3">
-        <f>B59</f>
+      <c r="N34" s="5">
         <v>0</v>
       </c>
-      <c r="O34" s="31">
-        <f>D52</f>
+      <c r="O34" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="32" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-      <c r="I35" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4">
-        <v>7.142857551574707</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
@@ -2039,32 +2086,11 @@
       <c r="D36" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-      <c r="I36" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -2077,11 +2103,11 @@
       <c r="D37" s="19">
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2094,11 +2120,11 @@
       <c r="D38" s="19">
         <v>1.9433464854955673E-2</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2111,11 +2137,11 @@
       <c r="D39" s="19">
         <v>5.4285712242126465</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2128,11 +2154,11 @@
       <c r="D40" s="19">
         <v>6.25</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="52"/>
+    </row>
+    <row r="41" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>15</v>
       </c>
@@ -2145,32 +2171,33 @@
       <c r="D41" s="21">
         <v>7.142857551574707</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="E35:G41"/>
+    <mergeCell ref="E28:G33"/>
+    <mergeCell ref="E21:G26"/>
+    <mergeCell ref="E12:G19"/>
+    <mergeCell ref="E1:G8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:G41"/>
-    <mergeCell ref="E28:G33"/>
-    <mergeCell ref="E21:G26"/>
-    <mergeCell ref="E12:G19"/>
-    <mergeCell ref="E1:G8"/>
+    <mergeCell ref="I27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mieec-distrib-v2014/outras_cenas/recursos_todosplanos.xlsx
+++ b/mieec-distrib-v2014/outras_cenas/recursos_todosplanos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marisaoliveira/Master-Thesis/mieec-distrib-v2014/outras_cenas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marisa Oliveira\Documents\GitHub\Master-Thesis\mieec-distrib-v2014\outras_cenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
   <si>
     <t>Resource</t>
   </si>
@@ -138,12 +138,15 @@
   </si>
   <si>
     <t>ARQUITETURAS DE TOPO</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,6 +176,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -206,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -553,6 +557,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -566,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -618,77 +633,128 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -701,6 +767,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -969,48 +1038,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1023,32 +1092,32 @@
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="37" t="s">
+      <c r="Q2" s="52"/>
+      <c r="R2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="35"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1061,9 +1130,9 @@
       <c r="D3" s="4">
         <v>0.11693017184734344</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
       <c r="I3" s="24" t="s">
         <v>25</v>
       </c>
@@ -1098,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1111,9 +1180,9 @@
       <c r="D4" s="4">
         <v>0.19433464109897614</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="I4" s="24" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1224,7 @@
         <v>0.11693017184734344</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1168,9 +1237,9 @@
       <c r="D5" s="4">
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
       <c r="I5" s="24" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1281,7 @@
         <v>0.19433464109897614</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1225,9 +1294,9 @@
       <c r="D6" s="4">
         <v>11.142857551574707</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
       <c r="I6" s="24" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1317,7 @@
         <v>9.9999997764825821E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1261,9 +1330,9 @@
       <c r="D7" s="4">
         <v>6.25</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
       <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1374,7 @@
         <v>11.142857551574707</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1318,9 +1387,9 @@
       <c r="D8" s="7">
         <v>2.8571429252624512</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
       <c r="I8" s="24" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1431,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I9" s="24" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1456,7 @@
       <c r="R9" s="27"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I10" s="25" t="s">
         <v>9</v>
       </c>
@@ -1426,25 +1495,25 @@
         <v>2.8571429252624512</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="47" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1457,11 +1526,11 @@
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1474,15 +1543,15 @@
       <c r="D14" s="4">
         <v>0.09</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1495,15 +1564,15 @@
       <c r="D15" s="4">
         <v>0.16</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1516,21 +1585,21 @@
       <c r="D16" s="4">
         <v>6.29</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33" t="s">
+      <c r="K16" s="55"/>
+      <c r="L16" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="33"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M16" s="55"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1543,9 +1612,9 @@
       <c r="D17" s="4">
         <v>15.63</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
         <v>10</v>
@@ -1563,7 +1632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1576,9 +1645,9 @@
       <c r="D18" s="4">
         <v>14.29</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="1"/>
       <c r="I18" s="24" t="s">
         <v>4</v>
@@ -1596,7 +1665,7 @@
         <v>0.116930171847343</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1609,9 +1678,9 @@
       <c r="D19" s="7">
         <v>2.86</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1"/>
       <c r="I19" s="24" t="s">
         <v>5</v>
@@ -1629,7 +1698,7 @@
         <v>0.19433464109897614</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="1"/>
       <c r="I20" s="24" t="s">
         <v>7</v>
@@ -1647,18 +1716,18 @@
         <v>11.142857551574707</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="47" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="1"/>
       <c r="I21" s="24" t="s">
         <v>8</v>
@@ -1676,7 +1745,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1689,9 +1758,9 @@
       <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
       <c r="I22" s="25" t="s">
         <v>9</v>
       </c>
@@ -1708,7 +1777,7 @@
         <v>2.8571429252624512</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>4</v>
       </c>
@@ -1721,12 +1790,12 @@
       <c r="D23" s="11">
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>5</v>
       </c>
@@ -1739,11 +1808,11 @@
       <c r="D24" s="13">
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
@@ -1756,11 +1825,11 @@
       <c r="D25" s="11">
         <v>14.714285850524902</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-    </row>
-    <row r="26" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>8</v>
       </c>
@@ -1773,11 +1842,11 @@
       <c r="D26" s="16">
         <v>3.125</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="56" t="s">
         <v>36</v>
       </c>
@@ -1788,33 +1857,35 @@
       <c r="N27" s="56"/>
       <c r="O27" s="56"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="47" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="34" t="s">
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="I28" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36" t="s">
+      <c r="K28" s="62"/>
+      <c r="L28" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="36" t="s">
+      <c r="M28" s="62"/>
+      <c r="N28" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="35"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="62"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1827,32 +1898,30 @@
       <c r="D29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-      <c r="I29" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -1865,38 +1934,38 @@
       <c r="D30" s="19">
         <v>1.0540184564888477E-2</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-      <c r="I30" s="24" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="I30" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="65">
         <f>B37</f>
         <v>31</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="66">
         <f>D37</f>
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="67">
         <f>B30</f>
         <v>64</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="68">
         <f>D30</f>
         <v>1.0540184564888477E-2</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="69">
         <f>B23</f>
         <v>59</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="68">
         <f>D23</f>
         <v>9.9999997764825821E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1909,38 +1978,38 @@
       <c r="D31" s="19">
         <v>2.2068509832024574E-2</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-      <c r="I31" s="24" t="s">
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="I31" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="65">
         <f>B38</f>
         <v>59</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="68">
         <f>D38</f>
         <v>1.9433464854955673E-2</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="67">
         <f>B31</f>
         <v>67</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="68">
         <f>D31</f>
         <v>2.2068509832024574E-2</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="69">
         <f>B24</f>
         <v>27</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O31" s="68">
         <f>D24</f>
         <v>9.9999997764825821E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1953,38 +2022,38 @@
       <c r="D32" s="19">
         <v>10</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="52"/>
-      <c r="I32" s="24" t="s">
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
+      <c r="I32" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="65">
         <f>B39</f>
         <v>38</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="68">
         <f>D39</f>
         <v>5.4285712242126465</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="67">
         <f>B32</f>
         <v>70</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="66">
         <f>D32</f>
         <v>10</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="69">
         <f>B25</f>
         <v>103</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="68">
         <f>D25</f>
         <v>14.714285850524902</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1997,72 +2066,44 @@
       <c r="D33" s="19">
         <v>3.125</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55"/>
-      <c r="I33" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="2">
-        <f>B40</f>
-        <v>2</v>
-      </c>
-      <c r="K33" s="4">
-        <f>D40</f>
-        <v>6.25</v>
-      </c>
-      <c r="L33" s="3">
-        <f>B33</f>
-        <v>1</v>
-      </c>
-      <c r="M33" s="31">
-        <f>D33</f>
-        <v>3.125</v>
-      </c>
-      <c r="N33" s="30">
-        <f>B26</f>
-        <v>1</v>
-      </c>
-      <c r="O33" s="31">
-        <f>D26</f>
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I34" s="25" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="I33" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J33" s="71">
         <v>0</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K33" s="72">
         <v>0</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L33" s="73">
         <v>0</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M33" s="72">
         <v>0</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N33" s="73">
         <v>0</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O33" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2073,7 +2114,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
@@ -2086,11 +2127,11 @@
       <c r="D36" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="52"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -2103,11 +2144,11 @@
       <c r="D37" s="19">
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2120,11 +2161,11 @@
       <c r="D38" s="19">
         <v>1.9433464854955673E-2</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2137,11 +2178,11 @@
       <c r="D39" s="19">
         <v>5.4285712242126465</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="52"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2154,11 +2195,11 @@
       <c r="D40" s="19">
         <v>6.25</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="52"/>
-    </row>
-    <row r="41" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>15</v>
       </c>
@@ -2171,33 +2212,34 @@
       <c r="D41" s="21">
         <v>7.142857551574707</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E35:G41"/>
-    <mergeCell ref="E28:G33"/>
-    <mergeCell ref="E21:G26"/>
-    <mergeCell ref="E12:G19"/>
-    <mergeCell ref="E1:G8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
+  <mergeCells count="22">
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="I27:O27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:G41"/>
+    <mergeCell ref="E28:G33"/>
+    <mergeCell ref="E21:G26"/>
+    <mergeCell ref="E12:G19"/>
+    <mergeCell ref="E1:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
